--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -451,547 +451,733 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004669</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>006104</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>92.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>010246</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>93.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001397</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信精工制造指数增强</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510160</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证南方小康产业ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159951</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中关村A股ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>100.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13.72</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004668</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004669</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005522</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>47.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1208,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1238,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1276,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159951</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实中关村A股ETF</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3948</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1314,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>44.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1352,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510160</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证南方小康产业ETF</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1390,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1428,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6942</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1466,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001397</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信精工制造指数增强</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.37</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1504,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1266,25 +1542,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1294,26 +1580,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>510160</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>南方中证南方小康产业ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1618,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>160638</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1656,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15.12</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1732,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>003822</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>中信建投行业轮换混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1770,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>167503</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>安信中证一带一路主题指数</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1808,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>003823</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>中信建投行业轮换混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1846,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>004099</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1528,15 +1894,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>28.28</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,25 +1922,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003822</t>
+          <t>008348</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合A</t>
+          <t>中信建投价值甄选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>84.37</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1574,25 +1960,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003823</t>
+          <t>001397</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信建投行业轮换混合C</t>
+          <t>建信精工制造指数增强</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>84.37</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1602,26 +1998,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>159951</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>嘉实中关村A股ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>87.38</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1630,26 +2036,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>87.38</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2071,4 +2072,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7608</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2774,4 +2775,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7469</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5651</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3439,4 +3440,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3448,7 +3449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3459,17 +3460,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3479,14 +3500,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.8</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3495,14 +3538,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.81</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1966</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3511,14 +3576,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.359999999999999</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3527,13 +3614,1023 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009032</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信聚和一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4529,7 +4530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4540,17 +4541,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4560,14 +4581,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.35</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4576,14 +4619,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.8</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4592,14 +4657,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.81</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4608,14 +4695,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.359999999999999</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4624,13 +4733,1079 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0215</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5688,7 +5689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5699,17 +5700,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5719,14 +5740,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.77</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5735,14 +5778,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.35</v>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5751,14 +5816,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.8</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5767,14 +5854,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.81</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5783,14 +5892,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.359999999999999</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1718</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5799,13 +5930,2385 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1018</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4939</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3626</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014349</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>31.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010222</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫民丰盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>35.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>27.28</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>18.77</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>6.35</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>11.8</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.81</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>9.359999999999999</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.66</v>
       </c>
     </row>
@@ -600,6 +617,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008835</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008836</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>71.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3085,7 +5020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4243,7 +6178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5323,7 +7258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5987,7 +7922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6689,7 +8624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7581,7 +9516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
+++ b/数据整理/stocks/A股/上证主板/601390-中国中铁.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>27.28</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>18.77</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>6.35</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>11.8</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>8.81</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>9.359999999999999</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,766 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4261</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004669</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1370,2224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8854</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4453</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016600</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517090</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银新增利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015287</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢优质生活混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>36.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015288</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢优质生活混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>517180</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159719</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安富时中国国企开放共赢ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>山西证券裕桓一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>970006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安证券汇赢增利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>70.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +5505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5020,7 +7991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6178,7 +9149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7258,7 +10229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7922,7 +10893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8624,7 +11595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9514,740 +12485,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4261</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3273</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0093</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3060</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1866</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>510160</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中证南方小康产业ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0966</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0758</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0555</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004668</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005522</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>47.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004669</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001397</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信精工制造指数增强</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159951</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实中关村A股ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>100.06</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>